--- a/test/results/01.BasicCodonUsage/NS3/NS3.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS3/NS3.RSCU.xlsx
@@ -253,16 +253,19 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>LC002520</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KU955594</t>
   </si>
   <si>
     <t>KF383118</t>
   </si>
   <si>
-    <t>KU955594</t>
+    <t>KF383119</t>
+  </si>
+  <si>
+    <t>KF383115</t>
   </si>
   <si>
     <t>KF268948</t>
@@ -271,19 +274,16 @@
     <t>KF268949</t>
   </si>
   <si>
-    <t>KF383115</t>
-  </si>
-  <si>
     <t>KF268950</t>
   </si>
   <si>
     <t>HQ234500</t>
   </si>
   <si>
-    <t>KF383116</t>
+    <t>HQ234501</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KF383116</t>
   </si>
   <si>
     <t>KU955595</t>
@@ -304,22 +304,22 @@
     <t>HQ234499</t>
   </si>
   <si>
+    <t>KU955593</t>
+  </si>
+  <si>
     <t>EU545988</t>
   </si>
   <si>
     <t>KU681082</t>
   </si>
   <si>
-    <t>KU955593</t>
-  </si>
-  <si>
-    <t>KX813683</t>
+    <t>KX694532</t>
   </si>
   <si>
     <t>KU681081</t>
   </si>
   <si>
-    <t>KX694532</t>
+    <t>KX813683</t>
   </si>
   <si>
     <t>KX447517</t>
@@ -331,19 +331,19 @@
     <t>KX197192</t>
   </si>
   <si>
+    <t>KU509998</t>
+  </si>
+  <si>
     <t>KU321639</t>
   </si>
   <si>
-    <t>KU509998</t>
+    <t>KU527068</t>
   </si>
   <si>
     <t>KX051563</t>
   </si>
   <si>
     <t>KX838906</t>
-  </si>
-  <si>
-    <t>KU527068</t>
   </si>
   <si>
     <t>KX673530</t>
@@ -355,10 +355,10 @@
     <t>KX832731</t>
   </si>
   <si>
-    <t>KX838905</t>
+    <t>KX842449</t>
   </si>
   <si>
-    <t>KX842449</t>
+    <t>KX838905</t>
   </si>
   <si>
     <t>KU853012</t>
@@ -385,10 +385,10 @@
     <t>KU740184</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KU761564</t>
   </si>
   <si>
-    <t>KU761564</t>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KX087101</t>
@@ -400,10 +400,10 @@
     <t>KU758877</t>
   </si>
   <si>
-    <t>KU937936</t>
+    <t>KU312312</t>
   </si>
   <si>
-    <t>KU312312</t>
+    <t>KU937936</t>
   </si>
   <si>
     <t>KU365779</t>
@@ -433,10 +433,10 @@
     <t>KU501216</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX766029</t>
   </si>
   <si>
-    <t>KX766029</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX247632</t>
@@ -493,10 +493,10 @@
     <t>KX156775</t>
   </si>
   <si>
-    <t>KX156774</t>
+    <t>KX156776</t>
   </si>
   <si>
-    <t>KX156776</t>
+    <t>KX156774</t>
   </si>
   <si>
     <t>KX447510</t>
@@ -1225,10 +1225,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="J4">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K4">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="L4">
         <v>1.11</v>
@@ -1273,25 +1273,25 @@
         <v>0.82</v>
       </c>
       <c r="Z4">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AA4">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AB4">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AC4">
         <v>0.14</v>
       </c>
       <c r="AD4">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AE4">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AF4">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AG4">
         <v>1.21</v>
@@ -1330,10 +1330,10 @@
         <v>0.53</v>
       </c>
       <c r="AS4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
         <v>2</v>
@@ -1366,16 +1366,16 @@
         <v>1.41</v>
       </c>
       <c r="BE4">
+        <v>1.25</v>
+      </c>
+      <c r="BF4">
+        <v>1.02</v>
+      </c>
+      <c r="BG4">
         <v>1.18</v>
       </c>
-      <c r="BF4">
-        <v>1.1</v>
-      </c>
-      <c r="BG4">
-        <v>1.25</v>
-      </c>
       <c r="BH4">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1554,10 +1554,10 @@
         <v>1.02</v>
       </c>
       <c r="BG5">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="BH5">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1771,10 +1771,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="J7">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K7">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="L7">
         <v>1.11</v>
@@ -1819,25 +1819,25 @@
         <v>0.82</v>
       </c>
       <c r="Z7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AA7">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AB7">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AC7">
         <v>0.14</v>
       </c>
       <c r="AD7">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AE7">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AF7">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AG7">
         <v>1.21</v>
@@ -1876,10 +1876,10 @@
         <v>0.53</v>
       </c>
       <c r="AS7">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AT7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>2</v>
@@ -1912,16 +1912,16 @@
         <v>1.41</v>
       </c>
       <c r="BE7">
+        <v>1.18</v>
+      </c>
+      <c r="BF7">
+        <v>1.1</v>
+      </c>
+      <c r="BG7">
         <v>1.25</v>
       </c>
-      <c r="BF7">
-        <v>1.02</v>
-      </c>
-      <c r="BG7">
-        <v>1.29</v>
-      </c>
       <c r="BH7">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:60">
@@ -1929,73 +1929,73 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="C8">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="D8">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="E8">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="F8">
+        <v>1.11</v>
+      </c>
+      <c r="G8">
         <v>0.89</v>
       </c>
-      <c r="G8">
-        <v>1.11</v>
-      </c>
       <c r="H8">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="I8">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="J8">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K8">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="L8">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="O8">
         <v>0.54</v>
       </c>
       <c r="P8">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="R8">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="S8">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="T8">
         <v>1.5</v>
       </c>
       <c r="U8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W8">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="X8">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="Y8">
         <v>0.68</v>
@@ -2010,43 +2010,43 @@
         <v>1.5</v>
       </c>
       <c r="AC8">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="AD8">
+        <v>0.95</v>
+      </c>
+      <c r="AE8">
+        <v>1.18</v>
+      </c>
+      <c r="AF8">
         <v>0.82</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
       <c r="AG8">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AH8">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AI8">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AJ8">
-        <v>0.97</v>
+        <v>1.38</v>
       </c>
       <c r="AK8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AL8">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AM8">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="AN8">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AO8">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>0.4</v>
@@ -2055,7 +2055,7 @@
         <v>0.4</v>
       </c>
       <c r="AR8">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="AS8">
         <v>0.8</v>
@@ -2064,46 +2064,46 @@
         <v>1.4</v>
       </c>
       <c r="AU8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AV8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AW8">
         <v>0.6</v>
       </c>
       <c r="AX8">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AY8">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AZ8">
-        <v>1.16</v>
+        <v>0.87</v>
       </c>
       <c r="BA8">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="BB8">
-        <v>0.71</v>
+        <v>1.04</v>
       </c>
       <c r="BC8">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="BD8">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BE8">
+        <v>1.28</v>
+      </c>
+      <c r="BF8">
+        <v>1.04</v>
+      </c>
+      <c r="BG8">
         <v>1.25</v>
       </c>
-      <c r="BF8">
-        <v>1.02</v>
-      </c>
-      <c r="BG8">
-        <v>1.41</v>
-      </c>
       <c r="BH8">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:60">
@@ -2114,10 +2114,10 @@
         <v>1.04</v>
       </c>
       <c r="C9">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="D9">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E9">
         <v>1.33</v>
@@ -2129,31 +2129,31 @@
         <v>1.11</v>
       </c>
       <c r="H9">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="I9">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="J9">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="K9">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="L9">
+        <v>1.11</v>
+      </c>
+      <c r="M9">
         <v>0.89</v>
       </c>
-      <c r="M9">
-        <v>1.11</v>
-      </c>
       <c r="N9">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="O9">
         <v>0.54</v>
       </c>
       <c r="P9">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Q9">
         <v>0.38</v>
@@ -2174,25 +2174,25 @@
         <v>0.3</v>
       </c>
       <c r="W9">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="X9">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Y9">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="Z9">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AA9">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB9">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AC9">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="AD9">
         <v>0.82</v>
@@ -2249,37 +2249,37 @@
         <v>1.8</v>
       </c>
       <c r="AV9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AW9">
         <v>0.6</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AY9">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="AZ9">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="BA9">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="BB9">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="BC9">
         <v>0.31</v>
       </c>
       <c r="BD9">
+        <v>1.41</v>
+      </c>
+      <c r="BE9">
         <v>1.25</v>
       </c>
-      <c r="BE9">
-        <v>1.18</v>
-      </c>
       <c r="BF9">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="BG9">
         <v>1.41</v>
@@ -2293,43 +2293,43 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="C10">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="D10">
         <v>0.15</v>
       </c>
       <c r="E10">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="F10">
+        <v>0.89</v>
+      </c>
+      <c r="G10">
         <v>1.11</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0.92</v>
+      </c>
+      <c r="I10">
+        <v>1.08</v>
+      </c>
+      <c r="J10">
+        <v>0.86</v>
+      </c>
+      <c r="K10">
+        <v>1.14</v>
+      </c>
+      <c r="L10">
         <v>0.89</v>
       </c>
-      <c r="H10">
-        <v>0.97</v>
-      </c>
-      <c r="I10">
-        <v>1.03</v>
-      </c>
-      <c r="J10">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K10">
-        <v>1.19</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="N10">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="O10">
         <v>0.54</v>
@@ -2338,79 +2338,79 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="R10">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="S10">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="T10">
         <v>1.5</v>
       </c>
       <c r="U10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="V10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W10">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="X10">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Y10">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="Z10">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AA10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AC10">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="AD10">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="AE10">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH10">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AI10">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="AJ10">
-        <v>1.38</v>
+        <v>0.97</v>
       </c>
       <c r="AK10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AL10">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AM10">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="AN10">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP10">
         <v>0.4</v>
@@ -2419,7 +2419,7 @@
         <v>0.4</v>
       </c>
       <c r="AR10">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="AS10">
         <v>0.8</v>
@@ -2428,46 +2428,46 @@
         <v>1.4</v>
       </c>
       <c r="AU10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AW10">
         <v>0.6</v>
       </c>
       <c r="AX10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AZ10">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="BA10">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="BB10">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="BC10">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="BD10">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="BE10">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="BF10">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="BG10">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="BH10">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -2839,16 +2839,16 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="D13">
         <v>0.22</v>
       </c>
       <c r="E13">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="F13">
         <v>1.11</v>
@@ -2857,22 +2857,22 @@
         <v>0.89</v>
       </c>
       <c r="H13">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="I13">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="J13">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="K13">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="L13">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="M13">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="N13">
         <v>2.31</v>
@@ -2881,10 +2881,10 @@
         <v>0.46</v>
       </c>
       <c r="P13">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="Q13">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="R13">
         <v>0.73</v>
@@ -2893,13 +2893,13 @@
         <v>1.27</v>
       </c>
       <c r="T13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U13">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="V13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W13">
         <v>0.6899999999999999</v>
@@ -2908,40 +2908,40 @@
         <v>1.31</v>
       </c>
       <c r="Y13">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="Z13">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="AA13">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AB13">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="AC13">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="AE13">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AF13">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="AG13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH13">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AI13">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AK13">
         <v>0.67</v>
@@ -2950,40 +2950,40 @@
         <v>1.33</v>
       </c>
       <c r="AM13">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AN13">
         <v>2.09</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP13">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="AQ13">
         <v>0.39</v>
       </c>
       <c r="AR13">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="AS13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AU13">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AV13">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="AW13">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AX13">
-        <v>1.12</v>
+        <v>0.8</v>
       </c>
       <c r="AY13">
         <v>1.82</v>
@@ -2998,22 +2998,22 @@
         <v>1</v>
       </c>
       <c r="BC13">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="BD13">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="BE13">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BF13">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="BG13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BH13">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="14" spans="1:60">
@@ -3021,16 +3021,16 @@
         <v>89</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="C14">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="D14">
         <v>0.22</v>
       </c>
       <c r="E14">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="F14">
         <v>1.11</v>
@@ -3039,22 +3039,22 @@
         <v>0.89</v>
       </c>
       <c r="H14">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="I14">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="J14">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="K14">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="L14">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="M14">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="N14">
         <v>2.31</v>
@@ -3063,10 +3063,10 @@
         <v>0.46</v>
       </c>
       <c r="P14">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="Q14">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="R14">
         <v>0.73</v>
@@ -3075,13 +3075,13 @@
         <v>1.27</v>
       </c>
       <c r="T14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U14">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="V14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W14">
         <v>0.6899999999999999</v>
@@ -3090,40 +3090,40 @@
         <v>1.31</v>
       </c>
       <c r="Y14">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="Z14">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="AA14">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AB14">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AD14">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="AE14">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AF14">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="AG14">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AH14">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI14">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="AJ14">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <v>0.67</v>
@@ -3132,40 +3132,40 @@
         <v>1.33</v>
       </c>
       <c r="AM14">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AN14">
         <v>2.09</v>
       </c>
       <c r="AO14">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="AQ14">
         <v>0.39</v>
       </c>
       <c r="AR14">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT14">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU14">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AV14">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="AW14">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AX14">
-        <v>0.8</v>
+        <v>1.12</v>
       </c>
       <c r="AY14">
         <v>1.82</v>
@@ -3180,22 +3180,22 @@
         <v>1</v>
       </c>
       <c r="BC14">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="BD14">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="BE14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BF14">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="BG14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:60">
@@ -4298,13 +4298,13 @@
         <v>0.98</v>
       </c>
       <c r="C21">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="D21">
         <v>0.38</v>
       </c>
       <c r="E21">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F21">
         <v>1.11</v>
@@ -4313,10 +4313,10 @@
         <v>0.89</v>
       </c>
       <c r="H21">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="I21">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
       <c r="J21">
         <v>0.67</v>
@@ -4343,85 +4343,85 @@
         <v>0.46</v>
       </c>
       <c r="R21">
+        <v>0.77</v>
+      </c>
+      <c r="S21">
+        <v>1.23</v>
+      </c>
+      <c r="T21">
+        <v>1.24</v>
+      </c>
+      <c r="U21">
+        <v>0.93</v>
+      </c>
+      <c r="V21">
         <v>0.83</v>
       </c>
-      <c r="S21">
-        <v>1.17</v>
-      </c>
-      <c r="T21">
-        <v>1.34</v>
-      </c>
-      <c r="U21">
-        <v>0.72</v>
-      </c>
-      <c r="V21">
-        <v>0.93</v>
-      </c>
       <c r="W21">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="X21">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="Y21">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="Z21">
         <v>1.23</v>
       </c>
       <c r="AA21">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB21">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AC21">
         <v>0.41</v>
       </c>
       <c r="AD21">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="AE21">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF21">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AG21">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AH21">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AI21">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="AJ21">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AM21">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AN21">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AO21">
         <v>0.13</v>
       </c>
       <c r="AP21">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="AQ21">
         <v>0.13</v>
       </c>
       <c r="AR21">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="AS21">
         <v>1.16</v>
@@ -4445,13 +4445,13 @@
         <v>1.48</v>
       </c>
       <c r="AZ21">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="BA21">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="BB21">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="BC21">
         <v>0.23</v>
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="BG21">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
       <c r="BH21">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4480,13 +4480,13 @@
         <v>0.98</v>
       </c>
       <c r="C22">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="D22">
         <v>0.38</v>
       </c>
       <c r="E22">
-        <v>1.21</v>
+        <v>0.98</v>
       </c>
       <c r="F22">
         <v>1.11</v>
@@ -4495,16 +4495,16 @@
         <v>0.89</v>
       </c>
       <c r="H22">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="I22">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="J22">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="K22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="L22">
         <v>1.11</v>
@@ -4513,55 +4513,55 @@
         <v>0.89</v>
       </c>
       <c r="N22">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="O22">
         <v>0.62</v>
       </c>
       <c r="P22">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="Q22">
         <v>0.46</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="T22">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="U22">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="V22">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="W22">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="X22">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y22">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="Z22">
         <v>1.23</v>
       </c>
       <c r="AA22">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AB22">
         <v>1.5</v>
       </c>
       <c r="AC22">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="AD22">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="AE22">
         <v>1.12</v>
@@ -4570,88 +4570,88 @@
         <v>0.88</v>
       </c>
       <c r="AG22">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AH22">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI22">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="AJ22">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="AK22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AN22">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AO22">
         <v>0.13</v>
       </c>
       <c r="AP22">
+        <v>0.13</v>
+      </c>
+      <c r="AQ22">
+        <v>0.13</v>
+      </c>
+      <c r="AR22">
+        <v>0.91</v>
+      </c>
+      <c r="AS22">
+        <v>1.16</v>
+      </c>
+      <c r="AT22">
+        <v>0.97</v>
+      </c>
+      <c r="AU22">
+        <v>2.13</v>
+      </c>
+      <c r="AV22">
+        <v>0.58</v>
+      </c>
+      <c r="AW22">
+        <v>0.39</v>
+      </c>
+      <c r="AX22">
+        <v>0.77</v>
+      </c>
+      <c r="AY22">
+        <v>1.48</v>
+      </c>
+      <c r="AZ22">
+        <v>1.3</v>
+      </c>
+      <c r="BA22">
         <v>0.26</v>
       </c>
-      <c r="AQ22">
-        <v>0.13</v>
-      </c>
-      <c r="AR22">
-        <v>0.77</v>
-      </c>
-      <c r="AS22">
-        <v>1.2</v>
-      </c>
-      <c r="AT22">
-        <v>1</v>
-      </c>
-      <c r="AU22">
-        <v>2</v>
-      </c>
-      <c r="AV22">
-        <v>0.6</v>
-      </c>
-      <c r="AW22">
-        <v>0.4</v>
-      </c>
-      <c r="AX22">
-        <v>0.8</v>
-      </c>
-      <c r="AY22">
-        <v>1.53</v>
-      </c>
-      <c r="AZ22">
-        <v>1.28</v>
-      </c>
-      <c r="BA22">
-        <v>0.34</v>
-      </c>
       <c r="BB22">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="BC22">
         <v>0.23</v>
       </c>
       <c r="BD22">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="BE22">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="BF22">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="BG22">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="BH22">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -4662,13 +4662,13 @@
         <v>0.98</v>
       </c>
       <c r="C23">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="D23">
         <v>0.38</v>
       </c>
       <c r="E23">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="F23">
         <v>1.11</v>
@@ -4677,16 +4677,16 @@
         <v>0.89</v>
       </c>
       <c r="H23">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="I23">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="J23">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="K23">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="L23">
         <v>1.11</v>
@@ -4695,31 +4695,31 @@
         <v>0.89</v>
       </c>
       <c r="N23">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="O23">
         <v>0.62</v>
       </c>
       <c r="P23">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="Q23">
         <v>0.46</v>
       </c>
       <c r="R23">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="U23">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="V23">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="W23">
         <v>1.03</v>
@@ -4728,46 +4728,46 @@
         <v>0.97</v>
       </c>
       <c r="Y23">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="Z23">
         <v>1.23</v>
       </c>
       <c r="AA23">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AB23">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AC23">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="AD23">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="AE23">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AF23">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AG23">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AH23">
         <v>0.97</v>
       </c>
       <c r="AI23">
-        <v>0.48</v>
+        <v>0.73</v>
       </c>
       <c r="AJ23">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AK23">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AL23">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AM23">
         <v>2.94</v>
@@ -4788,52 +4788,52 @@
         <v>0.77</v>
       </c>
       <c r="AS23">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AV23">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AW23">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AX23">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="AY23">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AZ23">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="BA23">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="BB23">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="BC23">
         <v>0.23</v>
       </c>
       <c r="BD23">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BE23">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="BF23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="BG23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="BH23">
         <v>1.06</v>
-      </c>
-      <c r="BH23">
-        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:60">
@@ -4847,10 +4847,10 @@
         <v>1.66</v>
       </c>
       <c r="D24">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="E24">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F24">
         <v>1.11</v>
@@ -4859,10 +4859,10 @@
         <v>0.89</v>
       </c>
       <c r="H24">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="I24">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J24">
         <v>0.67</v>
@@ -4871,37 +4871,37 @@
         <v>1.33</v>
       </c>
       <c r="L24">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
         <v>0.6899999999999999</v>
       </c>
       <c r="P24">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="Q24">
         <v>0.38</v>
       </c>
       <c r="R24">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="S24">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="T24">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="U24">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="V24">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="W24">
         <v>0.91</v>
@@ -4928,19 +4928,19 @@
         <v>0.27</v>
       </c>
       <c r="AE24">
+        <v>1.07</v>
+      </c>
+      <c r="AF24">
         <v>0.93</v>
       </c>
-      <c r="AF24">
-        <v>1.07</v>
-      </c>
       <c r="AG24">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AH24">
         <v>0.97</v>
       </c>
       <c r="AI24">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="AJ24">
         <v>1.09</v>
@@ -4991,25 +4991,25 @@
         <v>1.39</v>
       </c>
       <c r="AZ24">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="BA24">
         <v>0.43</v>
       </c>
       <c r="BB24">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="BC24">
         <v>0.23</v>
       </c>
       <c r="BD24">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="BE24">
         <v>1.38</v>
       </c>
       <c r="BF24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0.9399999999999999</v>
@@ -5211,10 +5211,10 @@
         <v>1.66</v>
       </c>
       <c r="D26">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E26">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="F26">
         <v>1.11</v>
@@ -5223,10 +5223,10 @@
         <v>0.89</v>
       </c>
       <c r="H26">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="I26">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J26">
         <v>0.67</v>
@@ -5235,37 +5235,37 @@
         <v>1.33</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O26">
         <v>0.6899999999999999</v>
       </c>
       <c r="P26">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="Q26">
         <v>0.38</v>
       </c>
       <c r="R26">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="S26">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="T26">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="U26">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="V26">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="W26">
         <v>0.91</v>
@@ -5292,19 +5292,19 @@
         <v>0.27</v>
       </c>
       <c r="AE26">
+        <v>0.93</v>
+      </c>
+      <c r="AF26">
         <v>1.07</v>
       </c>
-      <c r="AF26">
-        <v>0.93</v>
-      </c>
       <c r="AG26">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AH26">
         <v>0.97</v>
       </c>
       <c r="AI26">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="AJ26">
         <v>1.09</v>
@@ -5355,25 +5355,25 @@
         <v>1.39</v>
       </c>
       <c r="AZ26">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="BA26">
         <v>0.43</v>
       </c>
       <c r="BB26">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="BC26">
         <v>0.23</v>
       </c>
       <c r="BD26">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="BE26">
         <v>1.38</v>
       </c>
       <c r="BF26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="BG26">
         <v>0.9399999999999999</v>
@@ -6345,10 +6345,10 @@
         <v>0.38</v>
       </c>
       <c r="R32">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1.24</v>
@@ -6468,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="BG32">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="BH32">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="33" spans="1:60">
@@ -6482,13 +6482,13 @@
         <v>0.91</v>
       </c>
       <c r="C33">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="D33">
         <v>0.45</v>
       </c>
       <c r="E33">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="F33">
         <v>1.11</v>
@@ -6527,10 +6527,10 @@
         <v>0.38</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="T33">
         <v>1.24</v>
@@ -6554,7 +6554,7 @@
         <v>1.23</v>
       </c>
       <c r="AA33">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB33">
         <v>1.36</v>
@@ -6563,7 +6563,7 @@
         <v>0.41</v>
       </c>
       <c r="AD33">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="AE33">
         <v>1.07</v>
@@ -6650,10 +6650,10 @@
         <v>1</v>
       </c>
       <c r="BG33">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="BH33">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="34" spans="1:60">
@@ -6664,13 +6664,13 @@
         <v>0.91</v>
       </c>
       <c r="C34">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="D34">
         <v>0.45</v>
       </c>
       <c r="E34">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F34">
         <v>1.11</v>
@@ -6736,7 +6736,7 @@
         <v>1.23</v>
       </c>
       <c r="AA34">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB34">
         <v>1.36</v>
@@ -6745,7 +6745,7 @@
         <v>0.41</v>
       </c>
       <c r="AD34">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="AE34">
         <v>1.07</v>
@@ -7536,13 +7536,13 @@
         <v>0.77</v>
       </c>
       <c r="AY38">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AZ38">
         <v>1.22</v>
       </c>
       <c r="BA38">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="BB38">
         <v>0.96</v>
@@ -7718,13 +7718,13 @@
         <v>0.77</v>
       </c>
       <c r="AY39">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AZ39">
         <v>1.22</v>
       </c>
       <c r="BA39">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="BB39">
         <v>0.96</v>
@@ -10122,13 +10122,13 @@
         <v>0.91</v>
       </c>
       <c r="C53">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="D53">
         <v>0.45</v>
       </c>
       <c r="E53">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F53">
         <v>1.11</v>
@@ -10143,10 +10143,10 @@
         <v>1.08</v>
       </c>
       <c r="J53">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="K53">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="L53">
         <v>0.78</v>
@@ -10176,10 +10176,10 @@
         <v>1.24</v>
       </c>
       <c r="U53">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="V53">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="W53">
         <v>0.97</v>
@@ -10212,16 +10212,16 @@
         <v>0.93</v>
       </c>
       <c r="AG53">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AH53">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AI53">
         <v>0.48</v>
       </c>
       <c r="AJ53">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AK53">
         <v>0.8</v>
@@ -10254,13 +10254,13 @@
         <v>0.97</v>
       </c>
       <c r="AU53">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AV53">
         <v>0.58</v>
       </c>
       <c r="AW53">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="AX53">
         <v>0.77</v>
@@ -10304,13 +10304,13 @@
         <v>0.91</v>
       </c>
       <c r="C54">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="D54">
         <v>0.45</v>
       </c>
       <c r="E54">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F54">
         <v>1.11</v>
@@ -10325,10 +10325,10 @@
         <v>1.08</v>
       </c>
       <c r="J54">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="K54">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="L54">
         <v>0.78</v>
@@ -10358,10 +10358,10 @@
         <v>1.24</v>
       </c>
       <c r="U54">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="V54">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="W54">
         <v>0.97</v>
@@ -10394,16 +10394,16 @@
         <v>0.93</v>
       </c>
       <c r="AG54">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AH54">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AI54">
         <v>0.48</v>
       </c>
       <c r="AJ54">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="AK54">
         <v>0.8</v>
@@ -10436,13 +10436,13 @@
         <v>0.97</v>
       </c>
       <c r="AU54">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AV54">
         <v>0.58</v>
       </c>
       <c r="AW54">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="AX54">
         <v>0.77</v>

--- a/test/results/01.BasicCodonUsage/NS3/NS3.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS3/NS3.RSCU.xlsx
@@ -253,16 +253,22 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>LC002520</t>
-  </si>
-  <si>
     <t>KU955594</t>
   </si>
   <si>
     <t>KF383118</t>
   </si>
   <si>
+    <t>LC002520</t>
+  </si>
+  <si>
     <t>KF383119</t>
+  </si>
+  <si>
+    <t>KF268949</t>
+  </si>
+  <si>
+    <t>KF268950</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -271,22 +277,16 @@
     <t>KF268948</t>
   </si>
   <si>
-    <t>KF268949</t>
-  </si>
-  <si>
-    <t>KF268950</t>
+    <t>KF383116</t>
   </si>
   <si>
     <t>HQ234500</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KU955595</t>
   </si>
   <si>
-    <t>KF383116</t>
-  </si>
-  <si>
-    <t>KU955595</t>
+    <t>HQ234501</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -295,28 +295,28 @@
     <t>KU955591</t>
   </si>
   <si>
-    <t>KX601166</t>
+    <t>KF383117</t>
   </si>
   <si>
-    <t>KF383117</t>
+    <t>KX601166</t>
   </si>
   <si>
     <t>HQ234499</t>
   </si>
   <si>
-    <t>KU955593</t>
+    <t>EU545988</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>KU955593</t>
   </si>
   <si>
     <t>KU681082</t>
   </si>
   <si>
-    <t>KX694532</t>
+    <t>KU681081</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX694532</t>
   </si>
   <si>
     <t>KX813683</t>
@@ -328,31 +328,31 @@
     <t>KU744693</t>
   </si>
   <si>
-    <t>KX197192</t>
+    <t>KU321639</t>
   </si>
   <si>
     <t>KU509998</t>
   </si>
   <si>
-    <t>KU321639</t>
+    <t>KX197192</t>
+  </si>
+  <si>
+    <t>KX838906</t>
   </si>
   <si>
     <t>KU527068</t>
   </si>
   <si>
+    <t>KX673530</t>
+  </si>
+  <si>
     <t>KX051563</t>
   </si>
   <si>
-    <t>KX838906</t>
-  </si>
-  <si>
-    <t>KX673530</t>
+    <t>KX832731</t>
   </si>
   <si>
     <t>KX838904</t>
-  </si>
-  <si>
-    <t>KX832731</t>
   </si>
   <si>
     <t>KX842449</t>
@@ -400,10 +400,10 @@
     <t>KU758877</t>
   </si>
   <si>
-    <t>KU312312</t>
+    <t>KU937936</t>
   </si>
   <si>
-    <t>KU937936</t>
+    <t>KU312312</t>
   </si>
   <si>
     <t>KU365779</t>
@@ -424,10 +424,10 @@
     <t>KX694534</t>
   </si>
   <si>
-    <t>KU501217</t>
+    <t>KX262887</t>
   </si>
   <si>
-    <t>KX262887</t>
+    <t>KU501217</t>
   </si>
   <si>
     <t>KU501216</t>
@@ -439,10 +439,10 @@
     <t>KX446950</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446951</t>
   </si>
   <si>
-    <t>KX446951</t>
+    <t>KX247632</t>
   </si>
   <si>
     <t>KU940228</t>
@@ -463,10 +463,10 @@
     <t>KU991811</t>
   </si>
   <si>
-    <t>KX548902</t>
+    <t>KU647676</t>
   </si>
   <si>
-    <t>KU647676</t>
+    <t>KX548902</t>
   </si>
   <si>
     <t>KU922923</t>
@@ -475,10 +475,10 @@
     <t>KU922960</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KX702400</t>
   </si>
   <si>
-    <t>KX702400</t>
+    <t>KX198135</t>
   </si>
   <si>
     <t>KX247646</t>
@@ -505,10 +505,10 @@
     <t>KX447511</t>
   </si>
   <si>
-    <t>KX369547</t>
+    <t>KX447512</t>
   </si>
   <si>
-    <t>KX447512</t>
+    <t>KX369547</t>
   </si>
   <si>
     <t>KX447513</t>
@@ -517,10 +517,10 @@
     <t>KX117076</t>
   </si>
   <si>
-    <t>KU866423</t>
+    <t>KU955589</t>
   </si>
   <si>
-    <t>KU955589</t>
+    <t>KU866423</t>
   </si>
   <si>
     <t>KX266255</t>
@@ -529,10 +529,10 @@
     <t>KU820899</t>
   </si>
   <si>
-    <t>KX185891</t>
+    <t>KU963796</t>
   </si>
   <si>
-    <t>KU963796</t>
+    <t>KX185891</t>
   </si>
   <si>
     <t>KX806557</t>
@@ -1372,10 +1372,10 @@
         <v>1.02</v>
       </c>
       <c r="BG4">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="BH4">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1383,16 +1383,16 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="C5">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="D5">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E5">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="F5">
         <v>0.67</v>
@@ -1401,16 +1401,16 @@
         <v>1.33</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="I5">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="J5">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="K5">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="L5">
         <v>1.11</v>
@@ -1419,16 +1419,16 @@
         <v>0.89</v>
       </c>
       <c r="N5">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="O5">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="P5">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="Q5">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="R5">
         <v>0.73</v>
@@ -1437,61 +1437,61 @@
         <v>1.27</v>
       </c>
       <c r="T5">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U5">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="V5">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="W5">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="X5">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y5">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="Z5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA5">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AB5">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AC5">
         <v>0.14</v>
       </c>
       <c r="AD5">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AE5">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AG5">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AH5">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AI5">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="AJ5">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AK5">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AL5">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AM5">
         <v>2.93</v>
@@ -1512,52 +1512,52 @@
         <v>0.53</v>
       </c>
       <c r="AS5">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>2</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AW5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AX5">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AY5">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="AZ5">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="BA5">
         <v>0.09</v>
       </c>
       <c r="BB5">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="BC5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="BD5">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="BE5">
+        <v>1.28</v>
+      </c>
+      <c r="BF5">
+        <v>1.04</v>
+      </c>
+      <c r="BG5">
         <v>1.25</v>
       </c>
-      <c r="BF5">
-        <v>1.02</v>
-      </c>
-      <c r="BG5">
-        <v>1.29</v>
-      </c>
       <c r="BH5">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1565,16 +1565,16 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="C6">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="D6">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E6">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="F6">
         <v>0.67</v>
@@ -1583,16 +1583,16 @@
         <v>1.33</v>
       </c>
       <c r="H6">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="I6">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J6">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K6">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="L6">
         <v>1.11</v>
@@ -1601,16 +1601,16 @@
         <v>0.89</v>
       </c>
       <c r="N6">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="O6">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="P6">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="Q6">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="R6">
         <v>0.73</v>
@@ -1619,61 +1619,61 @@
         <v>1.27</v>
       </c>
       <c r="T6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U6">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="V6">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="W6">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="X6">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="Y6">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Z6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA6">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AB6">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AC6">
         <v>0.14</v>
       </c>
       <c r="AD6">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AE6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF6">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AG6">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AH6">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="AI6">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="AJ6">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AK6">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AL6">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AM6">
         <v>2.93</v>
@@ -1694,52 +1694,52 @@
         <v>0.53</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT6">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AU6">
         <v>2</v>
       </c>
       <c r="AV6">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AX6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AY6">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AZ6">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="BA6">
         <v>0.09</v>
       </c>
       <c r="BB6">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="BC6">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="BD6">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BE6">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BF6">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="BG6">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BH6">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -1929,43 +1929,43 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="C8">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="D8">
         <v>0.15</v>
       </c>
       <c r="E8">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="F8">
+        <v>0.89</v>
+      </c>
+      <c r="G8">
         <v>1.11</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.92</v>
+      </c>
+      <c r="I8">
+        <v>1.08</v>
+      </c>
+      <c r="J8">
+        <v>0.86</v>
+      </c>
+      <c r="K8">
+        <v>1.14</v>
+      </c>
+      <c r="L8">
         <v>0.89</v>
       </c>
-      <c r="H8">
-        <v>0.97</v>
-      </c>
-      <c r="I8">
-        <v>1.03</v>
-      </c>
-      <c r="J8">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K8">
-        <v>1.19</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="N8">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="O8">
         <v>0.54</v>
@@ -1974,79 +1974,79 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="R8">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="S8">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="T8">
         <v>1.5</v>
       </c>
       <c r="U8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="V8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W8">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="X8">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Y8">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="Z8">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AA8">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB8">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AC8">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="AD8">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="AE8">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH8">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="AI8">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="AJ8">
-        <v>1.38</v>
+        <v>0.97</v>
       </c>
       <c r="AK8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AL8">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AM8">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="AN8">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP8">
         <v>0.4</v>
@@ -2055,7 +2055,7 @@
         <v>0.4</v>
       </c>
       <c r="AR8">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="AS8">
         <v>0.8</v>
@@ -2064,46 +2064,46 @@
         <v>1.4</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AW8">
         <v>0.6</v>
       </c>
       <c r="AX8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AZ8">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="BA8">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="BB8">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="BC8">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="BD8">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="BE8">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="BF8">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="BG8">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="BH8">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="9" spans="1:60">
@@ -2293,43 +2293,43 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="C10">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="D10">
         <v>0.15</v>
       </c>
       <c r="E10">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="F10">
+        <v>1.11</v>
+      </c>
+      <c r="G10">
         <v>0.89</v>
       </c>
-      <c r="G10">
-        <v>1.11</v>
-      </c>
       <c r="H10">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="I10">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J10">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K10">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="L10">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="O10">
         <v>0.54</v>
@@ -2338,79 +2338,79 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="R10">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="S10">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="T10">
         <v>1.5</v>
       </c>
       <c r="U10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W10">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="X10">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y10">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="Z10">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AA10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AC10">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="AD10">
+        <v>0.95</v>
+      </c>
+      <c r="AE10">
+        <v>1.18</v>
+      </c>
+      <c r="AF10">
         <v>0.82</v>
       </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
       <c r="AG10">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AH10">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
       <c r="AI10">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="AJ10">
-        <v>0.97</v>
+        <v>1.38</v>
       </c>
       <c r="AK10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AL10">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AM10">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="AN10">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AO10">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0.4</v>
@@ -2419,7 +2419,7 @@
         <v>0.4</v>
       </c>
       <c r="AR10">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="AS10">
         <v>0.8</v>
@@ -2428,46 +2428,46 @@
         <v>1.4</v>
       </c>
       <c r="AU10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AV10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AW10">
         <v>0.6</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AY10">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AZ10">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="BA10">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="BB10">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="BC10">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="BD10">
+        <v>1.44</v>
+      </c>
+      <c r="BE10">
+        <v>1.28</v>
+      </c>
+      <c r="BF10">
+        <v>1.04</v>
+      </c>
+      <c r="BG10">
         <v>1.25</v>
       </c>
-      <c r="BE10">
-        <v>1.18</v>
-      </c>
-      <c r="BF10">
-        <v>1.25</v>
-      </c>
-      <c r="BG10">
-        <v>1.41</v>
-      </c>
       <c r="BH10">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -2657,16 +2657,16 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C12">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="D12">
         <v>0.22</v>
       </c>
       <c r="E12">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="F12">
         <v>1.11</v>
@@ -2675,16 +2675,16 @@
         <v>0.89</v>
       </c>
       <c r="H12">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="I12">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="J12">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="K12">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="L12">
         <v>0.78</v>
@@ -2693,73 +2693,73 @@
         <v>1.22</v>
       </c>
       <c r="N12">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="O12">
         <v>0.46</v>
       </c>
       <c r="P12">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="Q12">
         <v>0.46</v>
       </c>
       <c r="R12">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="S12">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="T12">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U12">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="V12">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="W12">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X12">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Y12">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z12">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AA12">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AB12">
+        <v>1.47</v>
+      </c>
+      <c r="AC12">
+        <v>0.13</v>
+      </c>
+      <c r="AD12">
+        <v>1.07</v>
+      </c>
+      <c r="AE12">
+        <v>1.2</v>
+      </c>
+      <c r="AF12">
+        <v>0.8</v>
+      </c>
+      <c r="AG12">
         <v>1.5</v>
       </c>
-      <c r="AC12">
-        <v>0.14</v>
-      </c>
-      <c r="AD12">
-        <v>0.82</v>
-      </c>
-      <c r="AE12">
-        <v>1.5</v>
-      </c>
-      <c r="AF12">
-        <v>0.5</v>
-      </c>
-      <c r="AG12">
-        <v>1.45</v>
-      </c>
       <c r="AH12">
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="AI12">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
       <c r="AJ12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>0.67</v>
@@ -2768,70 +2768,70 @@
         <v>1.33</v>
       </c>
       <c r="AM12">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AN12">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AR12">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="AS12">
-        <v>1.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AU12">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AV12">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="AW12">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AX12">
-        <v>0.8</v>
+        <v>1.12</v>
       </c>
       <c r="AY12">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AZ12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="BA12">
         <v>0.18</v>
       </c>
       <c r="BB12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="BC12">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="BD12">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="BE12">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="BF12">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="BG12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH12">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -2839,16 +2839,16 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="C13">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="D13">
         <v>0.22</v>
       </c>
       <c r="E13">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="F13">
         <v>1.11</v>
@@ -2857,91 +2857,91 @@
         <v>0.89</v>
       </c>
       <c r="H13">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="I13">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="J13">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="K13">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="L13">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="M13">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="N13">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="O13">
         <v>0.46</v>
       </c>
       <c r="P13">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q13">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="R13">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="S13">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="T13">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U13">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="V13">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="W13">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="X13">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Y13">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="Z13">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AA13">
         <v>1.36</v>
       </c>
       <c r="AB13">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AD13">
         <v>0.82</v>
       </c>
       <c r="AE13">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AF13">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="AG13">
         <v>1.45</v>
       </c>
       <c r="AH13">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="AI13">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="AJ13">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="AK13">
         <v>0.67</v>
@@ -2950,28 +2950,28 @@
         <v>1.33</v>
       </c>
       <c r="AM13">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
       <c r="AN13">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AO13">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AQ13">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AR13">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>2</v>
@@ -2986,28 +2986,28 @@
         <v>0.8</v>
       </c>
       <c r="AY13">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AZ13">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="BA13">
         <v>0.18</v>
       </c>
       <c r="BB13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BC13">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="BD13">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="BE13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="BF13">
-        <v>0.71</v>
+        <v>1.2</v>
       </c>
       <c r="BG13">
         <v>0.9399999999999999</v>
@@ -3024,13 +3024,13 @@
         <v>0.95</v>
       </c>
       <c r="C14">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="D14">
         <v>0.22</v>
       </c>
       <c r="E14">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="F14">
         <v>1.11</v>
@@ -3039,34 +3039,34 @@
         <v>0.89</v>
       </c>
       <c r="H14">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="I14">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="J14">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="K14">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="L14">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="M14">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="N14">
         <v>2.31</v>
       </c>
       <c r="O14">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="P14">
         <v>0.77</v>
       </c>
       <c r="Q14">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="R14">
         <v>0.73</v>
@@ -3075,13 +3075,13 @@
         <v>1.27</v>
       </c>
       <c r="T14">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U14">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
       <c r="V14">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="W14">
         <v>0.6899999999999999</v>
@@ -3090,40 +3090,40 @@
         <v>1.31</v>
       </c>
       <c r="Y14">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="Z14">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AB14">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AC14">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="AE14">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AF14">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="AG14">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH14">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI14">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AK14">
         <v>0.67</v>
@@ -3132,70 +3132,70 @@
         <v>1.33</v>
       </c>
       <c r="AM14">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AN14">
         <v>2.09</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP14">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="AQ14">
         <v>0.39</v>
       </c>
       <c r="AR14">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="AS14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AV14">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="AW14">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AX14">
-        <v>1.12</v>
+        <v>0.8</v>
       </c>
       <c r="AY14">
         <v>1.82</v>
       </c>
       <c r="AZ14">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="BA14">
         <v>0.18</v>
       </c>
       <c r="BB14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="BC14">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="BD14">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BE14">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BF14">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="BG14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BH14">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="15" spans="1:60">
@@ -3203,7 +3203,7 @@
         <v>90</v>
       </c>
       <c r="B15">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
         <v>1.45</v>
@@ -3212,7 +3212,7 @@
         <v>0.22</v>
       </c>
       <c r="E15">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="F15">
         <v>1.11</v>
@@ -3242,10 +3242,10 @@
         <v>2.31</v>
       </c>
       <c r="O15">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="P15">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="Q15">
         <v>0.38</v>
@@ -3257,13 +3257,13 @@
         <v>1.27</v>
       </c>
       <c r="T15">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U15">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="V15">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="W15">
         <v>0.6899999999999999</v>
@@ -3275,13 +3275,13 @@
         <v>1.23</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="AA15">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AB15">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -3299,10 +3299,10 @@
         <v>1.45</v>
       </c>
       <c r="AH15">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AI15">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="AJ15">
         <v>0.85</v>
@@ -3353,25 +3353,25 @@
         <v>1.82</v>
       </c>
       <c r="AZ15">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="BA15">
         <v>0.18</v>
       </c>
       <c r="BB15">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="BC15">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="BD15">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BE15">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BF15">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="BG15">
         <v>0.9399999999999999</v>
@@ -3749,16 +3749,16 @@
         <v>93</v>
       </c>
       <c r="B18">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C18">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="D18">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="E18">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="F18">
         <v>1.11</v>
@@ -3767,34 +3767,34 @@
         <v>0.89</v>
       </c>
       <c r="H18">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="I18">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="J18">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K18">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="L18">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="M18">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="N18">
         <v>2.31</v>
       </c>
       <c r="O18">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="P18">
         <v>0.77</v>
       </c>
       <c r="Q18">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="R18">
         <v>0.73</v>
@@ -3803,43 +3803,43 @@
         <v>1.27</v>
       </c>
       <c r="T18">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U18">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="V18">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="W18">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="X18">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="Y18">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AA18">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AB18">
         <v>1.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AD18">
+        <v>1.09</v>
+      </c>
+      <c r="AE18">
+        <v>1.18</v>
+      </c>
+      <c r="AF18">
         <v>0.82</v>
-      </c>
-      <c r="AE18">
-        <v>1.38</v>
-      </c>
-      <c r="AF18">
-        <v>0.62</v>
       </c>
       <c r="AG18">
         <v>1.45</v>
@@ -3854,76 +3854,76 @@
         <v>0.85</v>
       </c>
       <c r="AK18">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AL18">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AM18">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AN18">
         <v>2.09</v>
       </c>
       <c r="AO18">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP18">
+        <v>0.26</v>
+      </c>
+      <c r="AQ18">
         <v>0.52</v>
       </c>
-      <c r="AQ18">
-        <v>0.39</v>
-      </c>
       <c r="AR18">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT18">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>2</v>
       </c>
       <c r="AV18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AW18">
         <v>0.6</v>
       </c>
       <c r="AX18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AY18">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AZ18">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="BA18">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="BB18">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="BC18">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="BD18">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BE18">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BF18">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="BG18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH18">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:60">
@@ -3931,16 +3931,16 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C19">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="D19">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="E19">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="F19">
         <v>1.11</v>
@@ -3949,34 +3949,34 @@
         <v>0.89</v>
       </c>
       <c r="H19">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="I19">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="J19">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K19">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="L19">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="M19">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="N19">
         <v>2.31</v>
       </c>
       <c r="O19">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="P19">
         <v>0.77</v>
       </c>
       <c r="Q19">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="R19">
         <v>0.73</v>
@@ -3985,43 +3985,43 @@
         <v>1.27</v>
       </c>
       <c r="T19">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="U19">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="V19">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="W19">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X19">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="Y19">
-        <v>0.82</v>
+        <v>1.23</v>
       </c>
       <c r="Z19">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AB19">
         <v>1.5</v>
       </c>
       <c r="AC19">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AE19">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AF19">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="AG19">
         <v>1.45</v>
@@ -4036,76 +4036,76 @@
         <v>0.85</v>
       </c>
       <c r="AK19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AL19">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AM19">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AN19">
         <v>2.09</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP19">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="AQ19">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="AR19">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="AS19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AU19">
         <v>2</v>
       </c>
       <c r="AV19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AW19">
         <v>0.6</v>
       </c>
       <c r="AX19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AY19">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AZ19">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="BA19">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="BB19">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
       <c r="BC19">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="BD19">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BE19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BF19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="BG19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BH19">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="20" spans="1:60">
@@ -4298,13 +4298,13 @@
         <v>0.98</v>
       </c>
       <c r="C21">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="D21">
         <v>0.38</v>
       </c>
       <c r="E21">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="F21">
         <v>1.11</v>
@@ -4313,10 +4313,10 @@
         <v>0.89</v>
       </c>
       <c r="H21">
-        <v>0.86</v>
+        <v>1.03</v>
       </c>
       <c r="I21">
-        <v>1.14</v>
+        <v>0.97</v>
       </c>
       <c r="J21">
         <v>0.67</v>
@@ -4343,85 +4343,85 @@
         <v>0.46</v>
       </c>
       <c r="R21">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="S21">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="T21">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="U21">
+        <v>0.72</v>
+      </c>
+      <c r="V21">
         <v>0.93</v>
       </c>
-      <c r="V21">
-        <v>0.83</v>
-      </c>
       <c r="W21">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="X21">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y21">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="Z21">
         <v>1.23</v>
       </c>
       <c r="AA21">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB21">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AC21">
         <v>0.41</v>
       </c>
       <c r="AD21">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="AE21">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AF21">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AG21">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AH21">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI21">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="AJ21">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AK21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AN21">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AO21">
         <v>0.13</v>
       </c>
       <c r="AP21">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="AQ21">
         <v>0.13</v>
       </c>
       <c r="AR21">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="AS21">
         <v>1.16</v>
@@ -4445,13 +4445,13 @@
         <v>1.48</v>
       </c>
       <c r="AZ21">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="BA21">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="BB21">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="BC21">
         <v>0.23</v>
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="BG21">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="BH21">
-        <v>0.9399999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4480,13 +4480,13 @@
         <v>0.98</v>
       </c>
       <c r="C22">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="D22">
         <v>0.38</v>
       </c>
       <c r="E22">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F22">
         <v>1.11</v>
@@ -4495,10 +4495,10 @@
         <v>0.89</v>
       </c>
       <c r="H22">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="I22">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
       <c r="J22">
         <v>0.67</v>
@@ -4525,85 +4525,85 @@
         <v>0.46</v>
       </c>
       <c r="R22">
+        <v>0.77</v>
+      </c>
+      <c r="S22">
+        <v>1.23</v>
+      </c>
+      <c r="T22">
+        <v>1.24</v>
+      </c>
+      <c r="U22">
+        <v>0.93</v>
+      </c>
+      <c r="V22">
         <v>0.83</v>
       </c>
-      <c r="S22">
-        <v>1.17</v>
-      </c>
-      <c r="T22">
-        <v>1.34</v>
-      </c>
-      <c r="U22">
-        <v>0.72</v>
-      </c>
-      <c r="V22">
-        <v>0.93</v>
-      </c>
       <c r="W22">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="X22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="Y22">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="Z22">
         <v>1.23</v>
       </c>
       <c r="AA22">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AC22">
         <v>0.41</v>
       </c>
       <c r="AD22">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="AE22">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF22">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AG22">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AH22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AI22">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="AJ22">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AM22">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AN22">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AO22">
         <v>0.13</v>
       </c>
       <c r="AP22">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="AQ22">
         <v>0.13</v>
       </c>
       <c r="AR22">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="AS22">
         <v>1.16</v>
@@ -4627,13 +4627,13 @@
         <v>1.48</v>
       </c>
       <c r="AZ22">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="BA22">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="BB22">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="BC22">
         <v>0.23</v>
@@ -4648,10 +4648,10 @@
         <v>1</v>
       </c>
       <c r="BG22">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
       <c r="BH22">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -4841,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="B24">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="C24">
         <v>1.66</v>
@@ -4850,7 +4850,7 @@
         <v>0.38</v>
       </c>
       <c r="E24">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="F24">
         <v>1.11</v>
@@ -4877,31 +4877,31 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O24">
         <v>0.6899999999999999</v>
       </c>
       <c r="P24">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="Q24">
         <v>0.38</v>
       </c>
       <c r="R24">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="S24">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="T24">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="U24">
         <v>0.93</v>
       </c>
       <c r="V24">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="W24">
         <v>0.91</v>
@@ -4988,34 +4988,34 @@
         <v>0.77</v>
       </c>
       <c r="AY24">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AZ24">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BA24">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="BB24">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="BC24">
         <v>0.23</v>
       </c>
       <c r="BD24">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="BE24">
         <v>1.38</v>
       </c>
       <c r="BF24">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="BG24">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="BH24">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:60">
@@ -5023,7 +5023,7 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="C25">
         <v>1.66</v>
@@ -5032,7 +5032,7 @@
         <v>0.38</v>
       </c>
       <c r="E25">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F25">
         <v>1.11</v>
@@ -5059,31 +5059,31 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O25">
         <v>0.6899999999999999</v>
       </c>
       <c r="P25">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="Q25">
         <v>0.38</v>
       </c>
       <c r="R25">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="S25">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="T25">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="U25">
         <v>0.93</v>
       </c>
       <c r="V25">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="W25">
         <v>0.91</v>
@@ -5170,34 +5170,34 @@
         <v>0.77</v>
       </c>
       <c r="AY25">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AZ25">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BA25">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="BB25">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="BC25">
         <v>0.23</v>
       </c>
       <c r="BD25">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="BE25">
         <v>1.38</v>
       </c>
       <c r="BF25">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="BG25">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BH25">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="26" spans="1:60">
@@ -5847,13 +5847,13 @@
         <v>1.45</v>
       </c>
       <c r="AH29">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AI29">
         <v>0.48</v>
       </c>
       <c r="AJ29">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AK29">
         <v>0.8</v>
@@ -6211,13 +6211,13 @@
         <v>1.45</v>
       </c>
       <c r="AH31">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AI31">
         <v>0.48</v>
       </c>
       <c r="AJ31">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AK31">
         <v>0.8</v>
@@ -6300,13 +6300,13 @@
         <v>0.91</v>
       </c>
       <c r="C32">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="D32">
         <v>0.45</v>
       </c>
       <c r="E32">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="F32">
         <v>1.11</v>
@@ -6372,7 +6372,7 @@
         <v>1.23</v>
       </c>
       <c r="AA32">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB32">
         <v>1.36</v>
@@ -6381,7 +6381,7 @@
         <v>0.41</v>
       </c>
       <c r="AD32">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="AE32">
         <v>1.07</v>
@@ -6527,10 +6527,10 @@
         <v>0.38</v>
       </c>
       <c r="R33">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1.24</v>
@@ -6650,10 +6650,10 @@
         <v>1</v>
       </c>
       <c r="BG33">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="BH33">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="34" spans="1:60">
@@ -6846,13 +6846,13 @@
         <v>0.91</v>
       </c>
       <c r="C35">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="D35">
         <v>0.45</v>
       </c>
       <c r="E35">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="F35">
         <v>1.11</v>
@@ -6891,10 +6891,10 @@
         <v>0.38</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="T35">
         <v>1.24</v>
@@ -6918,7 +6918,7 @@
         <v>1.23</v>
       </c>
       <c r="AA35">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB35">
         <v>1.36</v>
@@ -6927,7 +6927,7 @@
         <v>0.41</v>
       </c>
       <c r="AD35">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="AE35">
         <v>1.07</v>
@@ -7014,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="BG35">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="BH35">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="36" spans="1:60">
@@ -7130,10 +7130,10 @@
         <v>1.09</v>
       </c>
       <c r="AK36">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AL36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AM36">
         <v>2.94</v>
@@ -7154,10 +7154,10 @@
         <v>0.89</v>
       </c>
       <c r="AS36">
+        <v>0.97</v>
+      </c>
+      <c r="AT36">
         <v>1.16</v>
-      </c>
-      <c r="AT36">
-        <v>0.97</v>
       </c>
       <c r="AU36">
         <v>2.13</v>
@@ -7312,10 +7312,10 @@
         <v>1.09</v>
       </c>
       <c r="AK37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AL37">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AM37">
         <v>2.94</v>
@@ -7336,10 +7336,10 @@
         <v>0.89</v>
       </c>
       <c r="AS37">
-        <v>0.97</v>
+        <v>1.16</v>
       </c>
       <c r="AT37">
-        <v>1.16</v>
+        <v>0.97</v>
       </c>
       <c r="AU37">
         <v>2.13</v>
@@ -10122,13 +10122,13 @@
         <v>0.91</v>
       </c>
       <c r="C53">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="D53">
         <v>0.45</v>
       </c>
       <c r="E53">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F53">
         <v>1.11</v>
@@ -10143,10 +10143,10 @@
         <v>1.08</v>
       </c>
       <c r="J53">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="K53">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="L53">
         <v>0.78</v>
@@ -10176,10 +10176,10 @@
         <v>1.24</v>
       </c>
       <c r="U53">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="V53">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="W53">
         <v>0.97</v>
@@ -10212,16 +10212,16 @@
         <v>0.93</v>
       </c>
       <c r="AG53">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AH53">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AI53">
         <v>0.48</v>
       </c>
       <c r="AJ53">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="AK53">
         <v>0.8</v>
@@ -10254,13 +10254,13 @@
         <v>0.97</v>
       </c>
       <c r="AU53">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AV53">
         <v>0.58</v>
       </c>
       <c r="AW53">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="AX53">
         <v>0.77</v>
@@ -10304,13 +10304,13 @@
         <v>0.91</v>
       </c>
       <c r="C54">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="D54">
         <v>0.45</v>
       </c>
       <c r="E54">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F54">
         <v>1.11</v>
@@ -10325,10 +10325,10 @@
         <v>1.08</v>
       </c>
       <c r="J54">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="K54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="L54">
         <v>0.78</v>
@@ -10358,10 +10358,10 @@
         <v>1.24</v>
       </c>
       <c r="U54">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="V54">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="W54">
         <v>0.97</v>
@@ -10394,16 +10394,16 @@
         <v>0.93</v>
       </c>
       <c r="AG54">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AH54">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AI54">
         <v>0.48</v>
       </c>
       <c r="AJ54">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AK54">
         <v>0.8</v>
@@ -10436,13 +10436,13 @@
         <v>0.97</v>
       </c>
       <c r="AU54">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AV54">
         <v>0.58</v>
       </c>
       <c r="AW54">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="AX54">
         <v>0.77</v>
@@ -11704,10 +11704,10 @@
         <v>0.89</v>
       </c>
       <c r="AS61">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AT61">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="AU61">
         <v>2.13</v>
@@ -11886,10 +11886,10 @@
         <v>0.89</v>
       </c>
       <c r="AS62">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AT62">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="AU62">
         <v>2.13</v>
@@ -13959,10 +13959,10 @@
         <v>0.89</v>
       </c>
       <c r="H74">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="I74">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="J74">
         <v>0.67</v>
@@ -13989,10 +13989,10 @@
         <v>0.38</v>
       </c>
       <c r="R74">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="S74">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="T74">
         <v>1.24</v>
@@ -14028,10 +14028,10 @@
         <v>0.27</v>
       </c>
       <c r="AE74">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AF74">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AG74">
         <v>1.45</v>
@@ -14112,10 +14112,10 @@
         <v>1</v>
       </c>
       <c r="BG74">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="BH74">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="75" spans="1:60">
@@ -14141,10 +14141,10 @@
         <v>0.89</v>
       </c>
       <c r="H75">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="I75">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="J75">
         <v>0.67</v>
@@ -14171,10 +14171,10 @@
         <v>0.38</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="T75">
         <v>1.24</v>
@@ -14210,10 +14210,10 @@
         <v>0.27</v>
       </c>
       <c r="AE75">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AF75">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AG75">
         <v>1.45</v>
@@ -14294,10 +14294,10 @@
         <v>1</v>
       </c>
       <c r="BG75">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="BH75">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="76" spans="1:60">
@@ -14675,10 +14675,10 @@
         <v>1.66</v>
       </c>
       <c r="D78">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="E78">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F78">
         <v>1.11</v>
@@ -14857,10 +14857,10 @@
         <v>1.66</v>
       </c>
       <c r="D79">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="E79">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F79">
         <v>1.11</v>
@@ -17241,10 +17241,10 @@
         <v>1.08</v>
       </c>
       <c r="J92">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="K92">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="L92">
         <v>0.78</v>
@@ -17265,10 +17265,10 @@
         <v>0.31</v>
       </c>
       <c r="R92">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="T92">
         <v>1.24</v>
@@ -17280,10 +17280,10 @@
         <v>0.83</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="X92">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="Y92">
         <v>1.09</v>
@@ -17328,10 +17328,10 @@
         <v>1.2</v>
       </c>
       <c r="AM92">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="AN92">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AO92">
         <v>0.13</v>
@@ -17343,7 +17343,7 @@
         <v>0.13</v>
       </c>
       <c r="AR92">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="AS92">
         <v>1.16</v>
@@ -17423,10 +17423,10 @@
         <v>1.08</v>
       </c>
       <c r="J93">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="K93">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="L93">
         <v>0.78</v>
@@ -17447,10 +17447,10 @@
         <v>0.31</v>
       </c>
       <c r="R93">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="S93">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="T93">
         <v>1.24</v>
@@ -17462,10 +17462,10 @@
         <v>0.83</v>
       </c>
       <c r="W93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="X93">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="Y93">
         <v>1.09</v>
@@ -17510,10 +17510,10 @@
         <v>1.2</v>
       </c>
       <c r="AM93">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="AN93">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AO93">
         <v>0.13</v>
@@ -17525,7 +17525,7 @@
         <v>0.13</v>
       </c>
       <c r="AR93">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AS93">
         <v>1.16</v>
